--- a/biology/Zoologie/Graphium_macleayanus/Graphium_macleayanus.xlsx
+++ b/biology/Zoologie/Graphium_macleayanus/Graphium_macleayanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium macleayanus, Macleay's Swallowtail dans son nom vernaculaire anglais, littéralement Machaon de Macleay est une espèce de lépidoptères appartenant à la famille des Papilionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il en existe deux sous-espèces : G. m. macleayanus et G. m. moggana, la deuxième vivant plus au sud que la première.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille mesure 4 cm de longueur. Elle est verte avec de petits points blancs sur tout le corps et un thorax bossu.
 La chrysalide est verte avec de fines lignes jaunes.
@@ -576,7 +592,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium macleayanus est l'un des Graphium les plus largement répandus en Australie. On le trouve dans l'Est de l'Australie y compris le Territoire de la capitale australienne, la Nouvelle-Galles du Sud, le Queensland, le Victoria et la Tasmanie. C'est le seul Graphium trouvé en Tasmanie. L'espèce a également été trouvée sur les îles Lord Howe et Norfolk, mais plus depuis 1893.
 L'habitat de l'espèce inclut les zones urbaines, les forêts, les terres boisées et les landes.
@@ -608,7 +626,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur le feuillage des genres Atherosperma, Cinnamomum, Cryptocarya, Daphnandra, Doryphora, Endiandra et Tasmannia.
 Les adultes se nourrissent du nectar des fleurs des genres Leptospermum, Lantana et Buddleia.
